--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{296A98ED-1700-49A8-9F80-0DD6494D516A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4CFDAAD5-3155-49E3-A643-C814DF998CF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="9135" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="10935" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="62">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Metadata (column names) for data table worksheets.</t>
   </si>
   <si>
-    <t>Index_Name</t>
-  </si>
-  <si>
     <t>ni_Ramello</t>
   </si>
   <si>
@@ -214,12 +211,6 @@
     <t>brackish organisms present</t>
   </si>
   <si>
-    <t>Metric_Name</t>
-  </si>
-  <si>
-    <t>Site_Type</t>
-  </si>
-  <si>
     <t>pi_dom02</t>
   </si>
   <si>
@@ -233,13 +224,34 @@
   </si>
   <si>
     <t>BCG_PacNW_v1_300ct</t>
+  </si>
+  <si>
+    <t>INDEX_NAME</t>
+  </si>
+  <si>
+    <t>INDEX_REGION</t>
+  </si>
+  <si>
+    <t>METRIC_NAME</t>
+  </si>
+  <si>
+    <t>MBSS.2005.Bugs</t>
+  </si>
+  <si>
+    <t>COASTAL</t>
+  </si>
+  <si>
+    <t>EPIEDMONT</t>
+  </si>
+  <si>
+    <t>HIGHLAND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +322,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +375,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -376,7 +408,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -385,8 +417,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -417,8 +450,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -820,7 +855,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[MetricFlags.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricFlags.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,7 +883,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,11 +1050,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,31 +1066,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="A1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>37</v>
+      <c r="F1" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1068,15 +1103,15 @@
         <v>600</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1089,18 +1124,18 @@
         <v>400</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1109,18 +1144,18 @@
         <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1129,18 +1164,18 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1149,18 +1184,18 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1169,18 +1204,18 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1189,15 +1224,15 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -1209,18 +1244,18 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1229,18 +1264,18 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>17</v>
@@ -1249,15 +1284,15 @@
         <v>0.5</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1269,15 +1304,15 @@
         <v>600</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1289,18 +1324,18 @@
         <v>450</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1309,18 +1344,18 @@
         <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1329,18 +1364,18 @@
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1349,18 +1384,18 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1369,18 +1404,18 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1389,15 +1424,15 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1409,18 +1444,18 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1429,18 +1464,18 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>17</v>
@@ -1449,15 +1484,15 @@
         <v>0.5</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1470,15 +1505,15 @@
         <v>360</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1491,18 +1526,18 @@
         <v>240</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -1512,18 +1547,18 @@
         <v>300</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -1533,18 +1568,18 @@
         <v>28.2</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
@@ -1553,18 +1588,18 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1573,18 +1608,18 @@
         <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
@@ -1593,15 +1628,15 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -1613,18 +1648,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1633,18 +1668,18 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>17</v>
@@ -1653,15 +1688,15 @@
         <v>0.5</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1674,15 +1709,15 @@
         <v>360</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1695,18 +1730,18 @@
         <v>240</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -1716,18 +1751,18 @@
         <v>300</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
@@ -1737,18 +1772,18 @@
         <v>28.2</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
@@ -1757,18 +1792,18 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -1777,18 +1812,18 @@
         <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -1797,15 +1832,15 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -1817,18 +1852,18 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -1837,18 +1872,18 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>17</v>
@@ -1857,7 +1892,127 @@
         <v>0.5</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>120</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4CFDAAD5-3155-49E3-A643-C814DF998CF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="10_ncr:100000_{4CFDAAD5-3155-49E3-A643-C814DF998CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{93D761EC-2473-4DF7-853E-116B5E8CD01E}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="10935" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="11535" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,17 @@
     <sheet name="Flags" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$F$47</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -817,7 +825,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -846,7 +854,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43369</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,9 +1060,9 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45:F47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
@@ -1481,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
@@ -1685,7 +1693,7 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
         <v>51</v>
@@ -1889,7 +1897,7 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
@@ -2016,6 +2024,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F47" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="10_ncr:100000_{4CFDAAD5-3155-49E3-A643-C814DF998CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{93D761EC-2473-4DF7-853E-116B5E8CD01E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="10_ncr:100000_{4CFDAAD5-3155-49E3-A643-C814DF998CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DD68E211-199F-4CA7-941E-90B2B1D40AB8}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="11535" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="12135" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -854,7 +854,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43481</v>
+        <v>43566</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,8 +1128,7 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <f>500*0.8</f>
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="10_ncr:100000_{4CFDAAD5-3155-49E3-A643-C814DF998CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DD68E211-199F-4CA7-941E-90B2B1D40AB8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="10_ncr:100000_{4CFDAAD5-3155-49E3-A643-C814DF998CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D6B436B7-9406-4BD5-AE10-A7A236992F3F}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="12135" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="12735" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1055,12 +1055,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet2">
+  <sheetPr codeName="Sheet2" filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
@@ -1093,7 +1093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>54</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>54</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>54</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>54</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>54</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>54</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>54</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>54</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>54</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>54</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>54</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>54</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>54</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>54</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>54</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>54</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>54</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>54</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2023,7 +2023,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F47" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
+  <autoFilter ref="A1:F47" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="450"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="10_ncr:100000_{4CFDAAD5-3155-49E3-A643-C814DF998CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D6B436B7-9406-4BD5-AE10-A7A236992F3F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="10_ncr:100000_{4CFDAAD5-3155-49E3-A643-C814DF998CF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6AD31AFD-11FA-4289-BD96-CFE98A815DD9}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="12735" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -863,7 +864,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[MetricFlags.xlsx]</v>
+        <v>C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\BioMonTools\inst\extdata\[MetricFlags.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,14 +1056,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet2" filterMode="1">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>54</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>54</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>54</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>54</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>54</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>54</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>54</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>54</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>54</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>54</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>54</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>54</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>54</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>54</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>54</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>54</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>54</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>54</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2023,13 +2024,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F47" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="450"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="10_ncr:100000_{4CFDAAD5-3155-49E3-A643-C814DF998CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D6B436B7-9406-4BD5-AE10-A7A236992F3F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B679A98-9D60-4F6A-A308-0607E09E8D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="12735" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="64">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -243,9 +246,6 @@
     <t>METRIC_NAME</t>
   </si>
   <si>
-    <t>MBSS.2005.Bugs</t>
-  </si>
-  <si>
     <t>COASTAL</t>
   </si>
   <si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>HIGHLAND</t>
+  </si>
+  <si>
+    <t>MBSS_2005_Bugs</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Updated MBSS.2005.Bugs to MBSS_2005_Bugs</t>
   </si>
 </sst>
 </file>
@@ -823,10 +832,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +948,22 @@
       <c r="C18" s="12" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
         <v>Flags</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>43566</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>44132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1055,14 +1080,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet2" filterMode="1">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1134,7 +1159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1154,7 +1179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1174,7 +1199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1194,7 +1219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1214,7 +1239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1234,7 +1259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1254,7 +1279,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1274,7 +1299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1294,7 +1319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1334,7 +1359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1354,7 +1379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1374,7 +1399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1394,7 +1419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1414,7 +1439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1434,7 +1459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1454,7 +1479,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1474,7 +1499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1494,7 +1519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>54</v>
       </c>
@@ -1515,7 +1540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>54</v>
       </c>
@@ -1536,7 +1561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>54</v>
       </c>
@@ -1557,7 +1582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>54</v>
       </c>
@@ -1578,7 +1603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +1623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>54</v>
       </c>
@@ -1618,7 +1643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>54</v>
       </c>
@@ -1638,7 +1663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -1658,7 +1683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>54</v>
       </c>
@@ -1678,7 +1703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>54</v>
       </c>
@@ -1698,7 +1723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>54</v>
       </c>
@@ -1719,7 +1744,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>54</v>
       </c>
@@ -1740,7 +1765,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>54</v>
       </c>
@@ -1761,7 +1786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>54</v>
       </c>
@@ -1782,7 +1807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>54</v>
       </c>
@@ -1802,7 +1827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>54</v>
       </c>
@@ -1822,7 +1847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>54</v>
       </c>
@@ -1842,7 +1867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>54</v>
       </c>
@@ -1862,7 +1887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>54</v>
       </c>
@@ -1882,7 +1907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>54</v>
       </c>
@@ -1902,12 +1927,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
         <v>58</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -1922,12 +1947,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -1942,12 +1967,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -1962,12 +1987,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
         <v>58</v>
-      </c>
-      <c r="B45" t="s">
-        <v>59</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -1982,12 +2007,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2002,12 +2027,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2023,13 +2048,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F47" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="450"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F47" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B679A98-9D60-4F6A-A308-0607E09E8D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF9E4A-75A8-4762-83A7-C207441F32FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="65">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -240,9 +241,6 @@
     <t>INDEX_NAME</t>
   </si>
   <si>
-    <t>INDEX_REGION</t>
-  </si>
-  <si>
     <t>METRIC_NAME</t>
   </si>
   <si>
@@ -262,6 +260,12 @@
   </si>
   <si>
     <t>Updated MBSS.2005.Bugs to MBSS_2005_Bugs</t>
+  </si>
+  <si>
+    <t>INDEX_CLASS</t>
+  </si>
+  <si>
+    <t>Index_Region to Index_Class</t>
   </si>
 </sst>
 </file>
@@ -832,10 +836,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +867,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43566</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,7 +959,7 @@
         <v>43566</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,7 +967,15 @@
         <v>44132</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44880</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1099,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,10 +1115,10 @@
         <v>55</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>19</v>
@@ -1929,10 +1941,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -1949,10 +1961,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -1969,10 +1981,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -1989,10 +2001,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2009,10 +2021,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2029,10 +2041,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF9E4A-75A8-4762-83A7-C207441F32FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC038734-6CE7-433E-B6A7-C0FCBADAE54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Flags" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$F$54</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="77">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -266,6 +268,42 @@
   </si>
   <si>
     <t>Index_Region to Index_Class</t>
+  </si>
+  <si>
+    <t>MTTI (OR-WA)</t>
+  </si>
+  <si>
+    <t>MTTI</t>
+  </si>
+  <si>
+    <t>nt_total</t>
+  </si>
+  <si>
+    <t>pi_dom01</t>
+  </si>
+  <si>
+    <t>individuals, dominant 01, Large</t>
+  </si>
+  <si>
+    <t>nt_DNI</t>
+  </si>
+  <si>
+    <t>pi_DNI</t>
+  </si>
+  <si>
+    <t>pt_DNI</t>
+  </si>
+  <si>
+    <t>non-OTU, taxa, large</t>
+  </si>
+  <si>
+    <t>non-OTU, percent individuals, large</t>
+  </si>
+  <si>
+    <t>non-OTU, percent taxa, large</t>
+  </si>
+  <si>
+    <t>taxa, small</t>
   </si>
 </sst>
 </file>
@@ -836,9 +874,9 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -867,7 +905,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44880</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,6 +1014,14 @@
       </c>
       <c r="B23" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45072</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1095,11 +1141,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,8 +2105,148 @@
         <v>38</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>150</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F47" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
+  <autoFilter ref="A1:F54" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC038734-6CE7-433E-B6A7-C0FCBADAE54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD18A62-D28E-48C9-9366-57A1A2C1F631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -72,8 +72,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Leppo, Erik</author>
+  </authors>
+  <commentList>
+    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{26B6583A-46D9-4165-AA5C-BCEBC2887041}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Works since TRUE = 1 and FALSE = 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{FC32FD69-E137-4FEE-8927-6C02A82ADB15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Works since TRUE = 1 and FALSE = 0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="81">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -304,13 +362,25 @@
   </si>
   <si>
     <t>taxa, small</t>
+  </si>
+  <si>
+    <t>MTTI_LO</t>
+  </si>
+  <si>
+    <t>MTTI_HI</t>
+  </si>
+  <si>
+    <t>MTTI, low</t>
+  </si>
+  <si>
+    <t>MTTI, high</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +465,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1137,15 +1220,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
         <v>73</v>
@@ -2219,7 +2302,7 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
         <v>74</v>
@@ -2239,14 +2322,55 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F54" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="14">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F54" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD18A62-D28E-48C9-9366-57A1A2C1F631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7EE4C9-9AB1-4DDF-B8DB-C4877147B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="83">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>MTTI, high</t>
+  </si>
+  <si>
+    <t>MN_IBI_Bugs</t>
+  </si>
+  <si>
+    <t>Add MN_IBI_Bugs</t>
   </si>
 </sst>
 </file>
@@ -957,9 +963,9 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -988,7 +994,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>45072</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,6 +1111,14 @@
       </c>
       <c r="B24" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45301</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1224,11 +1238,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,6 +2382,216 @@
         <v>80</v>
       </c>
     </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <f>300*1.2</f>
+        <v>360</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:E66" si="1">300*1.2</f>
+        <v>360</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <f>300*0.8</f>
+        <v>240</v>
+      </c>
+      <c r="F62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:E66" si="2">300*0.8</f>
+        <v>240</v>
+      </c>
+      <c r="F63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="F64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="F65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="F66" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F54" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7EE4C9-9AB1-4DDF-B8DB-C4877147B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0EB507-04E4-40E0-A1D5-916A47BE961A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="88">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -380,6 +380,21 @@
   </si>
   <si>
     <t>Add MN_IBI_Bugs</t>
+  </si>
+  <si>
+    <t>MN_IBI_Fish</t>
+  </si>
+  <si>
+    <t>pi_DELT_ExclSchool</t>
+  </si>
+  <si>
+    <t>individuals, DELT, Exclude School, high</t>
+  </si>
+  <si>
+    <t>individuals, DELT, Exclude School, extreme</t>
+  </si>
+  <si>
+    <t>Updates for MN_IBI_Fish</t>
   </si>
 </sst>
 </file>
@@ -640,9 +655,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,9 +695,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,26 +730,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,26 +765,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -963,7 +944,7 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -994,7 +975,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>45301</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,6 +1100,14 @@
       </c>
       <c r="B25" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45371</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1238,11 +1227,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63:D66"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,7 +2406,7 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58:E66" si="1">300*1.2</f>
+        <f t="shared" ref="E58:E61" si="1">300*1.2</f>
         <v>360</v>
       </c>
       <c r="F58" t="s">
@@ -2590,6 +2579,646 @@
       </c>
       <c r="F66" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
